--- a/regulus/test/module_spec.xlsx
+++ b/regulus/test/module_spec.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="正常系" sheetId="1" r:id="rId1"/>
+    <sheet name="異常系" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -18,9 +19,109 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待結果</t>
+    <rPh sb="0" eb="4">
+      <t>キタイケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストモジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Confirmation_Controller#show</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Confirmation_Controller#update_graph</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Confirmation_Controller#update_view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Currency_Controller#get_currncy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Information_Controller#get_article</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP_Client#parse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Confirmation_Controller#show</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Confirmation_Controller#update_graph</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Confirmation_Controller#update_view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Currency_Controller#get_currncy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP_Client#http_get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP_Client#http_get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Information_Controller#get_tweet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Information_Controller#get_tweet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Information_Controller#get_article</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -36,16 +137,40 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -53,15 +178,349 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -390,14 +849,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
+    <col min="5" max="6" width="70.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="19" thickBot="1"/>
+    <row r="2" spans="2:6" ht="19" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="13">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="13">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" ht="19" thickBot="1">
+      <c r="B10" s="16">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
+    <col min="5" max="6" width="70.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="19" thickBot="1"/>
+    <row r="2" spans="2:6" ht="19" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="13">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="13">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" ht="19" thickBot="1">
+      <c r="B10" s="16">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/regulus/test/module_spec.xlsx
+++ b/regulus/test/module_spec.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -57,6 +57,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Confirmation_Controller#update_graph</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Information_Controller#get_article</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP_Client#parse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Confirmation_Controller#show</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -73,47 +85,656 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Information_Controller#get_article</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HTTP_Client#parse</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Confirmation_Controller#show</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Confirmation_Controller#update_graph</t>
+    <t>HTTP_Client#http_get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP_Client#http_get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Information_Controller#get_tweet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL(http://160.16.66.112:880)にアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通貨情報を取得できている</t>
+    <rPh sb="0" eb="4">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザにグラフとツイートと記事が表示されている</t>
+    <rPh sb="14" eb="16">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドを引数なしで実行</t>
+    <rPh sb="5" eb="7">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部サイトから通貨情報を含んだレスポンスを取得できている</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスポンスから通貨情報を抜き出している</t>
+    <rPh sb="7" eb="11">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通貨情報を引数に指定してメソッドを実行</t>
+    <rPh sb="0" eb="4">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザに表示されているグラフが更新されている</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドを引数なしで実行</t>
+    <rPh sb="5" eb="7">
+      <t>ヒキスウナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートを取得できている</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日経の記事を取得できている</t>
+    <rPh sb="0" eb="2">
+      <t>ニッケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Confirmation_Controller#update_view</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Currency_Controller#get_currncy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HTTP_Client#http_get</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HTTP_Client#http_get</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Information_Controller#get_tweet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Information_Controller#get_tweet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Information_Controller#get_article</t>
+  </si>
+  <si>
+    <t>Confirmation_Controller#update_view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Confirmation_Controller#update_view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートと記事を引数に指定してメソッドを実行（ツイート・記事がない場合）</t>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートと記事を引数に指定してメソッドを実行（ツイート・記事が両方ともある場合）</t>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートと記事を引数に指定してメソッドを実行（ツイートのみがある場合）</t>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイス</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートと記事を引数に指定してメソッドを実行（記事のみがある場合）</t>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザに表示されているツイート・記事が更新されていない</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザに表示されているツイート・記事が更新されている</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザに表示されているツイートが更新されている</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザに表示されている記事が更新されている</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通貨情報を含んだレスポンスを指定してメソッドを実行</t>
+    <rPh sb="0" eb="2">
+      <t>ツウカジョウホ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートを含んだレスポンスを指定してメソッドを実行</t>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスポンスからツイートを抜き出している</t>
+    <rPh sb="12" eb="13">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事を含んだレスポンスを指定してメソッドを実行</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスポンスから記事を抜き出している</t>
+    <rPh sb="7" eb="9">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートを含んだレスポンスを指定してメソッドを実行（ツイートが無かった場合）</t>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事を含んだレスポンスを指定してメソッドを実行（記事が無かった場合）</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスポンスから何も抜き出していない</t>
+    <rPh sb="7" eb="8">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通貨情報取得のためのパスを指定してメソッドを実行</t>
+    <rPh sb="0" eb="4">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート取得のためのパスを指定してメソッドを実行</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事取得のためのパスを指定してメソッドを実行</t>
+    <rPh sb="0" eb="4">
+      <t>キジシュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部サイトからツイート情報を含んだレスポンスを取得できている</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部サイトから記事情報を含んだレスポンスを取得できている</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスを指定せずにメソッドを実行</t>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスポンスを指定せずにメソッドを実行</t>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通貨情報を指定せずにメソッドを実行</t>
+    <rPh sb="0" eb="4">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な通貨情報を指定してメソッドを実行</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正なツイートを指定してメソッドを実行</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な記事を指定してメソッドを実行</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Confirmation_Controller#update_view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフが更新されずに表示されている</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正なレスポンスを指定してメソッドを実行</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正なパスを指定してメソッド実行</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パースしない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストを送信しない</t>
+    <rPh sb="6" eb="8">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信エラーを補足している</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パースエラーを補足している</t>
+    <rPh sb="7" eb="9">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事が更新されずに表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートが更新されずに表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -170,7 +791,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -295,17 +916,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -445,7 +1055,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -461,8 +1071,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -474,38 +1164,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="95">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -513,6 +1208,46 @@
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -521,6 +1256,46 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -849,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -886,102 +1661,287 @@
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="C5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="12">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="12">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="12">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="12">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="13">
-        <v>3</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="13">
-        <v>4</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="E14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="12">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="13">
-        <v>4</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="D15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="12">
+        <v>14</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="13">
+      <c r="D16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="12">
+        <v>15</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="12">
+        <v>16</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="13">
-        <v>6</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="D18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="19" thickBot="1">
+      <c r="B19" s="15">
+        <v>17</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:6" ht="19" thickBot="1">
-      <c r="B10" s="16">
-        <v>7</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="D19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1000,7 +1960,7 @@
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1034,102 +1994,134 @@
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="19" thickBot="1">
+      <c r="B10" s="15">
         <v>8</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="13">
-        <v>3</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="13">
-        <v>4</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="13">
-        <v>4</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="13">
-        <v>5</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="13">
-        <v>6</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:6" ht="19" thickBot="1">
-      <c r="B10" s="16">
-        <v>7</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/regulus/test/module_spec.xlsx
+++ b/regulus/test/module_spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="正常系" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Confirmation_Controller#show</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Confirmation_Controller#update_graph</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -94,10 +90,6 @@
   </si>
   <si>
     <t>Information_Controller#get_tweet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URL(http://160.16.66.112:880)にアクセス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -107,16 +99,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブラウザにグラフとツイートと記事が表示されている</t>
-    <rPh sb="14" eb="16">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -791,7 +773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -886,36 +868,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1152,7 +1104,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1162,41 +1114,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1624,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F19"/>
+  <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1655,292 +1602,275 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="5">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="10">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="10">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="C13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="10">
+        <v>12</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="F14" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="10">
+        <v>13</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="10">
         <v>14</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="C16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="12">
-        <v>4</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="12">
+      <c r="C17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="D17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="19" thickBot="1">
+      <c r="B18" s="13">
+        <v>16</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="12">
-        <v>7</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="12">
-        <v>8</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="12">
-        <v>9</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="12">
-        <v>11</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="12">
-        <v>12</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="D18" s="20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="12">
-        <v>13</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="12">
-        <v>14</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="E18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="12">
-        <v>15</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="12">
-        <v>16</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="19" thickBot="1">
-      <c r="B19" s="15">
-        <v>17</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1959,7 +1889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1994,133 +1924,133 @@
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F8" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="19" thickBot="1">
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="12">
-        <v>4</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="12">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="12">
-        <v>7</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="19" thickBot="1">
-      <c r="B10" s="15">
-        <v>8</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/regulus/test/module_spec.xlsx
+++ b/regulus/test/module_spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="正常系" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -57,497 +57,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>HTTP_Client#parse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Confirmation_Controller#update_graph</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Information_Controller#get_article</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HTTP_Client#parse</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Confirmation_Controller#update_graph</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Confirmation_Controller#update_view</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Currency_Controller#get_currncy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HTTP_Client#http_get</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HTTP_Client#http_get</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Information_Controller#get_tweet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通貨情報を取得できている</t>
-    <rPh sb="0" eb="4">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッドを引数なしで実行</t>
-    <rPh sb="5" eb="7">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部サイトから通貨情報を含んだレスポンスを取得できている</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスポンスから通貨情報を抜き出している</t>
-    <rPh sb="7" eb="11">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通貨情報を引数に指定してメソッドを実行</t>
-    <rPh sb="0" eb="4">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブラウザに表示されているグラフが更新されている</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッドを引数なしで実行</t>
-    <rPh sb="5" eb="7">
-      <t>ヒキスウナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイートを取得できている</t>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日経の記事を取得できている</t>
-    <rPh sb="0" eb="2">
-      <t>ニッケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Confirmation_Controller#update_view</t>
-  </si>
-  <si>
-    <t>Confirmation_Controller#update_view</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Confirmation_Controller#update_view</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイートと記事を引数に指定してメソッドを実行（ツイート・記事がない場合）</t>
-    <rPh sb="5" eb="7">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイートと記事を引数に指定してメソッドを実行（ツイート・記事が両方ともある場合）</t>
-    <rPh sb="5" eb="7">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイートと記事を引数に指定してメソッドを実行（ツイートのみがある場合）</t>
-    <rPh sb="5" eb="7">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイス</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイートと記事を引数に指定してメソッドを実行（記事のみがある場合）</t>
-    <rPh sb="5" eb="7">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブラウザに表示されているツイート・記事が更新されていない</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブラウザに表示されているツイート・記事が更新されている</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブラウザに表示されているツイートが更新されている</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブラウザに表示されている記事が更新されている</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通貨情報を含んだレスポンスを指定してメソッドを実行</t>
-    <rPh sb="0" eb="2">
-      <t>ツウカジョウホ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイートを含んだレスポンスを指定してメソッドを実行</t>
-    <rPh sb="5" eb="6">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスポンスからツイートを抜き出している</t>
-    <rPh sb="12" eb="13">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記事を含んだレスポンスを指定してメソッドを実行</t>
-    <rPh sb="0" eb="2">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスポンスから記事を抜き出している</t>
-    <rPh sb="7" eb="9">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイートを含んだレスポンスを指定してメソッドを実行（ツイートが無かった場合）</t>
-    <rPh sb="5" eb="6">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記事を含んだレスポンスを指定してメソッドを実行（記事が無かった場合）</t>
-    <rPh sb="0" eb="2">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスポンスから何も抜き出していない</t>
-    <rPh sb="7" eb="8">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通貨情報取得のためのパスを指定してメソッドを実行</t>
-    <rPh sb="0" eb="4">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイート取得のためのパスを指定してメソッドを実行</t>
-    <rPh sb="4" eb="6">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記事取得のためのパスを指定してメソッドを実行</t>
-    <rPh sb="0" eb="4">
-      <t>キジシュトク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部サイトからツイート情報を含んだレスポンスを取得できている</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部サイトから記事情報を含んだレスポンスを取得できている</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュトク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -716,6 +238,71 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Currency::get_currencies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しく通貨情報を取得できている</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet::get_tweets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair, intervalを指定してメソッド実行</t>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド実行</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しくツイートを取得できている</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Article::get_articles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しく記事を取得できている</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -773,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1006,6 +593,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1104,7 +749,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1140,12 +785,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="95">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1571,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F18"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1609,13 +1257,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1626,251 +1274,30 @@
         <v>4</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="10">
+    <row r="5" spans="2:6" ht="19" thickBot="1">
+      <c r="B5" s="21">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="10">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="10">
-        <v>5</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="10">
-        <v>6</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="10">
-        <v>7</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="10">
-        <v>9</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="10">
-        <v>10</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="10">
-        <v>11</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="10">
-        <v>12</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="10">
-        <v>13</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="D5" s="23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="10">
-        <v>14</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="E5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="10">
-        <v>15</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="19" thickBot="1">
-      <c r="B18" s="13">
-        <v>16</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1925,13 +1352,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1942,13 +1369,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -1959,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1976,13 +1403,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1993,13 +1420,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -2010,13 +1437,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -2027,13 +1454,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="19" thickBot="1">
@@ -2044,13 +1471,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/regulus/test/module_spec.xlsx
+++ b/regulus/test/module_spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="正常系" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -45,200 +45,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.0.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テストモジュール</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テストケース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HTTP_Client#parse</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Confirmation_Controller#update_graph</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Confirmation_Controller#update_view</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HTTP_Client#http_get</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスを指定せずにメソッドを実行</t>
-    <rPh sb="3" eb="5">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスポンスを指定せずにメソッドを実行</t>
-    <rPh sb="6" eb="8">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通貨情報を指定せずにメソッドを実行</t>
-    <rPh sb="0" eb="4">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正な通貨情報を指定してメソッドを実行</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正なツイートを指定してメソッドを実行</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正な記事を指定してメソッドを実行</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Confirmation_Controller#update_view</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グラフが更新されずに表示されている</t>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正なレスポンスを指定してメソッドを実行</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正なパスを指定してメソッド実行</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パースしない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リクエストを送信しない</t>
-    <rPh sb="6" eb="8">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>送信エラーを補足している</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パースエラーを補足している</t>
-    <rPh sb="7" eb="9">
-      <t>ホソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記事が更新されずに表示されている</t>
-    <rPh sb="0" eb="2">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイートが更新されずに表示されている</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -303,6 +114,51 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Currency::get_currencies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pairを指定せずに実行</t>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Currency::get_currencies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intervalを指定せずに実行</t>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair, intervalを指定せずに実行</t>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nilを返す</t>
+    <rPh sb="4" eb="5">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -360,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -550,56 +406,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -749,7 +555,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -767,13 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -782,18 +582,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="95">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1221,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1240,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2</v>
@@ -1256,48 +1053,48 @@
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>28</v>
+      <c r="D3" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>30</v>
+      <c r="D4" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="19" thickBot="1">
-      <c r="B5" s="21">
+      <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>35</v>
+      <c r="D5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1314,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1335,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2</v>
@@ -1351,133 +1148,48 @@
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>11</v>
+      <c r="D3" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>11</v>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="10">
+    <row r="5" spans="2:6" ht="19" thickBot="1">
+      <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="10">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="10">
-        <v>5</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="10">
-        <v>6</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="10">
-        <v>7</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="19" thickBot="1">
-      <c r="B10" s="13">
-        <v>8</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/regulus/test/module_spec.xlsx
+++ b/regulus/test/module_spec.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -159,6 +159,66 @@
     <t>nilを返す</t>
     <rPh sb="4" eb="5">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Currency::get_currencies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Currency::get_currencies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な値のpairを指定して実行</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な値のintervalを指定して実行</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な値のpair, intervalを指定して実行</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -216,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -457,6 +517,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -555,7 +665,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -591,6 +701,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="95">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1111,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F5"/>
+  <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1175,20 +1294,71 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="19" thickBot="1">
-      <c r="B5" s="16">
+    <row r="5" spans="2:6">
+      <c r="B5" s="21">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="21">
         <v>4</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="C6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="21">
+        <v>5</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="19" thickBot="1">
+      <c r="B8" s="16">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="E8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>20</v>
       </c>
     </row>

--- a/regulus/test/module_spec.xlsx
+++ b/regulus/test/module_spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="正常系" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -57,19 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>正しく通貨情報を取得できている</t>
-    <rPh sb="0" eb="1">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Tweet::get_tweets</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -91,30 +78,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>正しくツイートを取得できている</t>
-    <rPh sb="0" eb="1">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Article::get_articles</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正しく記事を取得できている</t>
-    <rPh sb="0" eb="1">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -219,6 +183,189 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet::get_tweets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Article::get_articles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド実行（DBに登録されているツイートが100件未満の場合）</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド実行（DBに登録されている記事が20件未満の場合）</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Currency::get_currencies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair, intervalを指定してメソッド実行（DBの通貨情報が不足している場合）</t>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30期間分の通貨情報を返す</t>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空も含めて30期間分の通貨情報を返す</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新のツイートを取得できた件数分返す</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新のツイートを100件返す</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新の記事を20件返す</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新の記事を取得できた件数分返す</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -568,8 +715,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -711,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="101">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -759,6 +912,9 @@
     <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -807,6 +963,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1135,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F5"/>
+  <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1176,10 +1335,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1190,30 +1349,81 @@
         <v>4</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="19" thickBot="1">
+      <c r="B8" s="16">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="19" thickBot="1">
-      <c r="B5" s="16">
-        <v>3</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>14</v>
+      <c r="E8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1232,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1268,13 +1478,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1285,13 +1495,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -1299,16 +1509,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1316,16 +1526,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" s="25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1333,16 +1543,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="19" thickBot="1">
@@ -1353,13 +1563,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/regulus/test/module_spec.xlsx
+++ b/regulus/test/module_spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="正常系" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -61,23 +61,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pair, intervalを指定してメソッド実行</t>
-    <rPh sb="15" eb="17">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッド実行</t>
-    <rPh sb="4" eb="6">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Article::get_articles</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -86,47 +69,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pairを指定せずに実行</t>
-    <rPh sb="5" eb="7">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Currency::get_currencies</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>intervalを指定せずに実行</t>
-    <rPh sb="9" eb="11">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pair, intervalを指定せずに実行</t>
-    <rPh sb="15" eb="17">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nilを返す</t>
-    <rPh sb="4" eb="5">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.0.0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -139,54 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不正な値のpairを指定して実行</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正な値のintervalを指定して実行</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正な値のpair, intervalを指定して実行</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Tweet::get_tweets</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -195,67 +93,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メソッド実行（DBに登録されているツイートが100件未満の場合）</t>
-    <rPh sb="4" eb="6">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ミマン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッド実行（DBに登録されている記事が20件未満の場合）</t>
-    <rPh sb="4" eb="6">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ミマン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Currency::get_currencies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pair, intervalを指定してメソッド実行（DBの通貨情報が不足している場合）</t>
-    <rPh sb="15" eb="17">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="29" eb="33">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>フソク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -366,6 +204,88 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: nil, interval: 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: 'USDJPY', interval: nil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: nil, interval: nil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: 'INVALID', interval: 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: 'USDJPY', interval: -1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: 'INVALID', interval: -1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: 'USDJPY', interval: 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: 'USDJPY', interval: 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの通貨情報が不足している</t>
+    <rPh sb="3" eb="7">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに登録されている記事が20件未満</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに登録されているツイートが100件未満</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミマン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -423,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -714,6 +634,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -818,7 +797,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -863,6 +842,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="101">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1294,20 +1278,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F8"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
     <col min="4" max="4" width="47.1640625" customWidth="1"/>
-    <col min="5" max="6" width="70.83203125" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" customWidth="1"/>
+    <col min="6" max="7" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19" thickBot="1"/>
-    <row r="2" spans="2:6" ht="19" thickBot="1">
+    <row r="1" spans="2:7" ht="19" thickBot="1"/>
+    <row r="2" spans="2:7" ht="19" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,11 +1306,14 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:7">
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -1335,13 +1324,14 @@
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:7">
       <c r="B4" s="10">
         <v>2</v>
       </c>
@@ -1349,16 +1339,19 @@
         <v>4</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" s="10">
         <v>3</v>
       </c>
@@ -1368,14 +1361,13 @@
       <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>33</v>
+      <c r="E5" s="11"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" s="10">
         <v>4</v>
       </c>
@@ -1383,16 +1375,17 @@
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7" s="10">
         <v>5</v>
       </c>
@@ -1400,16 +1393,15 @@
         <v>4</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="19" thickBot="1">
+    <row r="8" spans="2:7" ht="19" thickBot="1">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -1417,13 +1409,14 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="29" t="s">
         <v>35</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1440,20 +1433,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F8"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
     <col min="4" max="4" width="47.1640625" customWidth="1"/>
-    <col min="5" max="6" width="70.83203125" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" customWidth="1"/>
+    <col min="6" max="7" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19" thickBot="1"/>
-    <row r="2" spans="2:6" ht="19" thickBot="1">
+    <row r="1" spans="2:7" ht="19" thickBot="1"/>
+    <row r="2" spans="2:7" ht="19" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,11 +1461,14 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:7">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -1478,16 +1476,17 @@
         <v>3</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:7">
       <c r="B4" s="10">
         <v>2</v>
       </c>
@@ -1495,67 +1494,71 @@
         <v>4</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" s="21">
         <v>3</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" s="21">
         <v>4</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7" s="21">
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="19" thickBot="1">
+    <row r="8" spans="2:7" ht="19" thickBot="1">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -1563,13 +1566,14 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
